--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -1,385 +1,411 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="possible values" sheetId="2" r:id="rId5"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="possible values" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">data!$A$1:$G$100</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$G$100</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjFuEWJq6BH2FGvy38lmyImh9dXww=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="112">
-  <si>
-    <t>PLZ</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Penetration</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>KAM Region (wenn gross aber nicht betreut)</t>
-  </si>
-  <si>
-    <t>HFC footprint</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Lausanne</t>
-  </si>
-  <si>
-    <t>FTTH Swisscom</t>
-  </si>
-  <si>
-    <t>West Bern-Seeland</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Top City</t>
-  </si>
-  <si>
-    <t>Ost SG-TG-AR-AI</t>
-  </si>
-  <si>
-    <t>Ticino</t>
-  </si>
-  <si>
-    <t>Ost GR und ZH Oberland</t>
-  </si>
-  <si>
-    <t>Romandie</t>
-  </si>
-  <si>
-    <t>West Zentralschweiz + Solothurn</t>
-  </si>
-  <si>
-    <t>Jouxtens-Mézery</t>
-  </si>
-  <si>
-    <t>Ost ZH</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Pully</t>
-  </si>
-  <si>
-    <t>FTTH SFN</t>
-  </si>
-  <si>
-    <t>West AG-BL-BS</t>
-  </si>
-  <si>
-    <t>Ost Agglomeration Winterthur</t>
-  </si>
-  <si>
-    <t>Romandie Offnet</t>
-  </si>
-  <si>
-    <t>Ost GR und ZH Oberland Offnet</t>
-  </si>
-  <si>
-    <t>Chavannes-près-Renens</t>
-  </si>
-  <si>
-    <t>West Zentralschweiz + Solothurn Offnet</t>
-  </si>
-  <si>
-    <t>Agglo</t>
-  </si>
-  <si>
-    <t>Ost SG-TG-AR-AI Offnet</t>
-  </si>
-  <si>
-    <t>Renens (VD)</t>
-  </si>
-  <si>
-    <t>Ticino Offnet</t>
-  </si>
-  <si>
-    <t>G.fast</t>
-  </si>
-  <si>
-    <t>West AG-BL-BS Offnet</t>
-  </si>
-  <si>
-    <t>Crissier</t>
-  </si>
-  <si>
-    <t>VDSL</t>
-  </si>
-  <si>
-    <t>West Bern-Seeland Offnet</t>
-  </si>
-  <si>
-    <t>Ecublens (VD)</t>
-  </si>
-  <si>
-    <t>Ost ZH Offnet</t>
-  </si>
-  <si>
-    <t>Saint-Sulpice (VD)</t>
-  </si>
-  <si>
-    <t>Romandie-Oberwallis Offnet</t>
-  </si>
-  <si>
-    <t>Med City</t>
-  </si>
-  <si>
-    <t>Denges</t>
-  </si>
-  <si>
-    <t>Echandens</t>
-  </si>
-  <si>
-    <t>Préverenges</t>
-  </si>
-  <si>
-    <t>Villars-Sainte-Croix</t>
-  </si>
-  <si>
-    <t>Bussigny</t>
-  </si>
-  <si>
-    <t>Mex (VD)</t>
-  </si>
-  <si>
-    <t>Cheseaux-sur-Lausanne</t>
-  </si>
-  <si>
-    <t>Boussens</t>
-  </si>
-  <si>
-    <t>Bournens</t>
-  </si>
-  <si>
-    <t>Sullens</t>
-  </si>
-  <si>
-    <t>Etagnières</t>
-  </si>
-  <si>
-    <t>Bercher</t>
-  </si>
-  <si>
-    <t>Echallens</t>
-  </si>
-  <si>
-    <t>Bottens</t>
-  </si>
-  <si>
-    <t>Bettens</t>
-  </si>
-  <si>
-    <t>Montilliez</t>
-  </si>
-  <si>
-    <t>Fey</t>
-  </si>
-  <si>
-    <t>Ogens</t>
-  </si>
-  <si>
-    <t>Rueyres</t>
-  </si>
-  <si>
-    <t>Bretigny-sur-Morrens</t>
-  </si>
-  <si>
-    <t>Morrens (VD)</t>
-  </si>
-  <si>
-    <t>Froideville</t>
-  </si>
-  <si>
-    <t>Jorat-Menthue</t>
-  </si>
-  <si>
-    <t>Hermenches</t>
-  </si>
-  <si>
-    <t>Boulens</t>
-  </si>
-  <si>
-    <t>Epalinges</t>
-  </si>
-  <si>
-    <t>Puidoux</t>
-  </si>
-  <si>
-    <t>Chexbres</t>
-  </si>
-  <si>
-    <t>Forel (Lavaux)</t>
-  </si>
-  <si>
-    <t>Ferlens (VD)</t>
-  </si>
-  <si>
-    <t>Servion</t>
-  </si>
-  <si>
-    <t>Essertes</t>
-  </si>
-  <si>
-    <t>Montpreveyres</t>
-  </si>
-  <si>
-    <t>Corcelles-le-Jorat</t>
-  </si>
-  <si>
-    <t>Carrouge (VD)</t>
-  </si>
-  <si>
-    <t>Vulliens</t>
-  </si>
-  <si>
-    <t>Ropraz</t>
-  </si>
-  <si>
-    <t>Lutry</t>
-  </si>
-  <si>
-    <t>Belmont-sur-Lausanne</t>
-  </si>
-  <si>
-    <t>Paudex</t>
-  </si>
-  <si>
-    <t>Bourg-en-Lavaux</t>
-  </si>
-  <si>
-    <t>Morges</t>
-  </si>
-  <si>
-    <t>Echichens</t>
-  </si>
-  <si>
-    <t>Vullierens</t>
-  </si>
-  <si>
-    <t>Cottens (VD)</t>
-  </si>
-  <si>
-    <t>Grancy</t>
-  </si>
-  <si>
-    <t>Bremblens</t>
-  </si>
-  <si>
-    <t>Romanel-sur-Morges</t>
-  </si>
-  <si>
-    <t>Aclens</t>
-  </si>
-  <si>
-    <t>Gollion</t>
-  </si>
-  <si>
-    <t>Vaux-sur-Morges</t>
-  </si>
-  <si>
-    <t>Clarmont</t>
-  </si>
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Tolochenaz</t>
-  </si>
-  <si>
-    <t>Lully (VD)</t>
-  </si>
-  <si>
-    <t>Chigny</t>
-  </si>
-  <si>
-    <t>Denens</t>
-  </si>
-  <si>
-    <t>Bussy-Chardonney</t>
-  </si>
-  <si>
-    <t>Sévery</t>
-  </si>
-  <si>
-    <t>Pampigny</t>
-  </si>
-  <si>
-    <t>Ballens</t>
-  </si>
-  <si>
-    <t>Bière</t>
-  </si>
-  <si>
-    <t>Mollens (VD)</t>
-  </si>
-  <si>
-    <t>KAM Region</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>integer (4 digit number)</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="112">
+  <si>
+    <t xml:space="preserve">PLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penetration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAM Region (wenn gross aber nicht betreut)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFC footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lausanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTTH Swisscom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bern-Seeland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost SG-TG-AR-AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost GR und ZH Oberland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romandie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Zentralschweiz + Solothurn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jouxtens-Mézery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost ZH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTTH SFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West AG-BL-BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost Agglomeration Winterthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romandie Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost GR und ZH Oberland Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavannes-près-Renens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Zentralschweiz + Solothurn Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost SG-TG-AR-AI Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticino Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West AG-BL-BS Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crissier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bern-Seeland Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecublens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost ZH Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Sulpice (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romandie-Oberwallis Offnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echandens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préverenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villars-Sainte-Croix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bussigny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mex (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheseaux-sur-Lausanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boussens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etagnières</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bercher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echallens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bettens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montilliez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rueyres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bretigny-sur-Morrens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Froideville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorat-Menthue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermenches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epalinges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puidoux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chexbres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forel (Lavaux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferlens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essertes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montpreveyres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corcelles-le-Jorat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrouge (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulliens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ropraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belmont-sur-Lausanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paudex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourg-en-Lavaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echichens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vullierens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremblens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanel-sur-Morges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aclens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gollion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaux-sur-Morges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolochenaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lully (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chigny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bussy-Chardonney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sévery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pampigny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAM Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer (4 digit number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -387,285 +413,186 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0563C1"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="4" max="4" width="20.13"/>
-    <col customWidth="1" min="5" max="5" width="31.5"/>
-    <col customWidth="1" min="6" max="6" width="13.88"/>
-    <col customWidth="1" min="7" max="7" width="17.13"/>
-    <col customWidth="1" min="8" max="26" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,15 +615,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1000.0</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.008136094674556213</v>
+      <c r="C2" s="4" t="n">
+        <v>0.00813609467455621</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -711,15 +638,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1003.0</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1003</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.008136094674556213</v>
+      <c r="C3" s="4" t="n">
+        <v>0.00813609467455621</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -734,15 +661,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>1004.0</v>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>1004</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.003787878787878788</v>
+      <c r="C4" s="4" t="n">
+        <v>0.00378787878787879</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -757,15 +684,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>1005.0</v>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>1005</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.003787878787878788</v>
+      <c r="C5" s="4" t="n">
+        <v>0.00378787878787879</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -780,15 +707,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>1006.0</v>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1006</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.005178716490658002</v>
+      <c r="C6" s="4" t="n">
+        <v>0.005178716490658</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -803,15 +730,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>1007.0</v>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>1007</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.0059340320591861895</v>
+      <c r="C7" s="4" t="n">
+        <v>0.00593403205918619</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -826,15 +753,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>1008.0</v>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1008</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
-        <v>6.654245408570668E-4</v>
+      <c r="C8" s="4" t="n">
+        <v>0.000665424540857067</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -849,15 +776,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1009.0</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>1009</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.21190379951495555</v>
+      <c r="C9" s="4" t="n">
+        <v>0.211903799514956</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -872,14 +799,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>1010.0</v>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1010</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>0.00705521472392638</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -895,14 +822,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>1011.0</v>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>1011</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>0.00705521472392638</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -918,15 +845,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>1012.0</v>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>1012</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.007489467935715401</v>
+      <c r="C12" s="4" t="n">
+        <v>0.0074894679357154</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -941,15 +868,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>1015.0</v>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>1015</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.0</v>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -964,15 +891,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>1018.0</v>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>1018</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.005319148936170213</v>
+      <c r="C14" s="4" t="n">
+        <v>0.00531914893617021</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -987,15 +914,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>1020.0</v>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>1020</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.27183358202404984</v>
+      <c r="C15" s="4" t="n">
+        <v>0.27183358202405</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1010,15 +937,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>1022.0</v>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>1022</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.3105699221692192</v>
+      <c r="C16" s="4" t="n">
+        <v>0.310569922169219</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
@@ -1033,14 +960,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>1023.0</v>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>1023</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>0.123</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1056,15 +983,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>1024.0</v>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>1024</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.2779705117085863</v>
+      <c r="C18" s="4" t="n">
+        <v>0.277970511708586</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -1079,14 +1006,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>1025.0</v>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>1025</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1102,20 +1029,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>1026.0</v>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>1026</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>0.54</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1125,20 +1052,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>1027.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>1027</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>0.321</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1148,20 +1075,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>1028.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>1028</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.2702702702702703</v>
+      <c r="C22" s="4" t="n">
+        <v>0.27027027027027</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1171,20 +1098,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>1029.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>1029</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.16243654822335024</v>
+      <c r="C23" s="4" t="n">
+        <v>0.16243654822335</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1194,20 +1121,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
-        <v>1030.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>1030</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.23122487835836683</v>
+      <c r="C24" s="4" t="n">
+        <v>0.231224878358367</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1217,20 +1144,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>1031.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>1031</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="n">
         <v>0.5295</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1240,20 +1167,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>1032.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>1032</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.005319148936170213</v>
+      <c r="C26" s="4" t="n">
+        <v>0.00531914893617021</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1263,20 +1190,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>1033.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>1033</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.005319148936170213</v>
+      <c r="C27" s="4" t="n">
+        <v>0.00531914893617021</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1286,20 +1213,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>1034.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>1034</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4">
-        <v>0.2819277108433735</v>
+      <c r="C28" s="4" t="n">
+        <v>0.281927710843373</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1309,20 +1236,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>1035.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>1035</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="n">
         <v>0.6199</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1332,20 +1259,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
-        <v>1036.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>1036</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="n">
         <v>0.7103</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1355,20 +1282,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>1037.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>1037</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="n">
         <v>0.113</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1378,20 +1305,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>1038.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>1038</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4">
-        <v>0.0</v>
+      <c r="C32" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1401,20 +1328,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>1040.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>1040</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1424,20 +1351,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>1041.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>1041</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="4">
-        <v>0.046064139941690965</v>
+      <c r="C34" s="4" t="n">
+        <v>0.046064139941691</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1447,20 +1374,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>1042.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>1042</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="4" t="n">
         <v>0.19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1470,20 +1397,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>1043.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>1043</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1493,20 +1420,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>1044.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>1044</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="4" t="n">
         <v>0.63</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1516,20 +1443,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>1045.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>1045</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
+      <c r="C38" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1539,20 +1466,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>1046.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>1046</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -1562,20 +1489,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>1047.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>1047</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="4">
-        <v>0.0</v>
+      <c r="C40" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -1585,20 +1512,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
-        <v>1052.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>1052</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.003132691877377489</v>
+      <c r="C41" s="4" t="n">
+        <v>0.00313269187737749</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -1608,20 +1535,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
-        <v>1053.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>1053</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
+      <c r="C42" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -1631,20 +1558,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
-        <v>1054.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>1054</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
+      <c r="C43" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -1654,20 +1581,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
-        <v>1055.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>1055</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="4" t="n">
         <v>0.6</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -1677,20 +1604,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
-        <v>1058.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>1058</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1700,20 +1627,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <v>1059.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>1059</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
+      <c r="C46" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -1723,20 +1650,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>1061.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>1061</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
+      <c r="C47" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -1746,20 +1673,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>1062.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>1062</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
+      <c r="C48" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -1769,20 +1696,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
-        <v>1063.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>1063</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
+      <c r="C49" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -1792,20 +1719,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>1066.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>1066</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="4">
-        <v>2.1436227224008573E-4</v>
+      <c r="C50" s="4" t="n">
+        <v>0.000214362272240086</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -1815,20 +1742,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>1068.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>1068</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
+      <c r="C51" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -1838,20 +1765,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
-        <v>1070.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>1070</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="4">
-        <v>0.11734693877551021</v>
+      <c r="C52" s="4" t="n">
+        <v>0.11734693877551</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -1861,20 +1788,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
-        <v>1071.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>1071</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="4" t="n">
         <v>0.54</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -1884,20 +1811,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
-        <v>1072.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>1072</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="4" t="n">
         <v>0.32</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -1907,20 +1834,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3">
-        <v>1073.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>1073</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="4" t="n">
         <v>0.44</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -1930,20 +1857,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
-        <v>1076.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>1076</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="4">
-        <v>0.0</v>
+      <c r="C56" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -1953,20 +1880,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3">
-        <v>1077.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>1077</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -1976,20 +1903,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3">
-        <v>1078.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>1078</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -1999,20 +1926,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3">
-        <v>1080.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>1080</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2022,20 +1949,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3">
-        <v>1081.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>1081</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="4">
-        <v>0.0</v>
+      <c r="C60" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2045,20 +1972,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3">
-        <v>1082.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>1082</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2068,20 +1995,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3">
-        <v>1083.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>1083</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="4">
-        <v>0.0</v>
+      <c r="C62" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2091,20 +2018,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3">
-        <v>1084.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>1084</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="4" t="n">
         <v>0.21</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2114,20 +2041,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3">
-        <v>1085.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>1085</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="4">
-        <v>0.0</v>
+      <c r="C64" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -2137,20 +2064,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3">
-        <v>1088.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>1088</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="4">
-        <v>0.0</v>
+      <c r="C65" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -2160,20 +2087,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3">
-        <v>1090.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>1090</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="4">
-        <v>0.2047685834502104</v>
+      <c r="C66" s="4" t="n">
+        <v>0.20476858345021</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -2183,20 +2110,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3">
-        <v>1091.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>1091</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="4">
-        <v>0.14849498327759197</v>
+      <c r="C67" s="4" t="n">
+        <v>0.148494983277592</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2206,20 +2133,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3">
-        <v>1092.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>1092</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="4">
-        <v>0.22558537978298115</v>
+      <c r="C68" s="4" t="n">
+        <v>0.225585379782981</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2229,20 +2156,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3">
-        <v>1093.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>1093</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="4" t="n">
         <v>0.6</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2252,20 +2179,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3">
-        <v>1094.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>1094</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="4" t="n">
         <v>0.22</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -2275,20 +2202,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3">
-        <v>1095.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>1095</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -2298,20 +2225,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3">
-        <v>1096.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>1096</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="4">
-        <v>0.15456238361266295</v>
+      <c r="C72" s="4" t="n">
+        <v>0.154562383612663</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -2321,20 +2248,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
-        <v>1097.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>1097</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="4">
-        <v>0.11464968152866241</v>
+      <c r="C73" s="4" t="n">
+        <v>0.114649681528662</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -2344,20 +2271,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3">
-        <v>1098.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>1098</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="4" t="n">
         <v>0.24</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -2367,20 +2294,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3">
-        <v>1110.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>1110</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="4">
-        <v>0.20059535241021703</v>
+      <c r="C75" s="4" t="n">
+        <v>0.200595352410217</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -2390,20 +2317,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3">
-        <v>1112.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>1112</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="4">
-        <v>0.11901840490797547</v>
+      <c r="C76" s="4" t="n">
+        <v>0.119018404907975</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -2413,20 +2340,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3">
-        <v>1113.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>1113</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="4">
-        <v>0.0</v>
+      <c r="C77" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -2436,20 +2363,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3">
-        <v>1114.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>1114</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="4">
-        <v>0.14705882352941177</v>
+      <c r="C78" s="4" t="n">
+        <v>0.147058823529412</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -2459,20 +2386,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3">
-        <v>1115.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>1115</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="4" t="n">
         <v>0.62</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -2482,20 +2409,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3">
-        <v>1116.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>1116</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="4">
-        <v>0.18905472636815918</v>
+      <c r="C80" s="4" t="n">
+        <v>0.189054726368159</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -2505,20 +2432,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3">
-        <v>1117.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>1117</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="4" t="n">
         <v>0.41</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -2528,20 +2455,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3">
-        <v>1121.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>1121</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -2551,20 +2478,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3">
-        <v>1122.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>1122</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -2574,20 +2501,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3">
-        <v>1123.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>1123</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="4">
-        <v>0.16531165311653115</v>
+      <c r="C84" s="4" t="n">
+        <v>0.165311653116531</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -2597,20 +2524,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3">
-        <v>1124.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>1124</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="4">
-        <v>0.0</v>
+      <c r="C85" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -2620,20 +2547,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3">
-        <v>1125.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>1125</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="4">
-        <v>0.0</v>
+      <c r="C86" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -2643,20 +2570,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3">
-        <v>1126.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>1126</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="4" t="n">
         <v>0.19</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -2666,20 +2593,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3">
-        <v>1127.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>1127</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="4">
-        <v>0.0</v>
+      <c r="C88" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -2689,20 +2616,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3">
-        <v>1128.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>1128</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="4">
-        <v>0.20218579234972675</v>
+      <c r="C89" s="4" t="n">
+        <v>0.202185792349727</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -2712,20 +2639,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3">
-        <v>1131.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>1131</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="4">
-        <v>0.21208907741251326</v>
+      <c r="C90" s="4" t="n">
+        <v>0.212089077412513</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -2735,20 +2662,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3">
-        <v>1132.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>1132</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="4">
-        <v>0.18232044198895028</v>
+      <c r="C91" s="4" t="n">
+        <v>0.18232044198895</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -2758,20 +2685,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3">
-        <v>1134.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>1134</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="4">
-        <v>0.28153564899451555</v>
+      <c r="C92" s="4" t="n">
+        <v>0.281535648994516</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -2781,20 +2708,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3">
-        <v>1135.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>1135</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="4">
-        <v>0.25146198830409355</v>
+      <c r="C93" s="4" t="n">
+        <v>0.251461988304094</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -2804,20 +2731,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3">
-        <v>1136.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>1136</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="4">
-        <v>0.4101123595505618</v>
+      <c r="C94" s="4" t="n">
+        <v>0.410112359550562</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -2827,20 +2754,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3">
-        <v>1141.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>1141</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="4">
-        <v>0.23275862068965517</v>
+      <c r="C95" s="4" t="n">
+        <v>0.232758620689655</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -2850,20 +2777,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3">
-        <v>1142.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>1142</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -2873,20 +2800,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3">
-        <v>1143.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="n">
+        <v>1143</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="4">
-        <v>0.2042360060514372</v>
+      <c r="C97" s="4" t="n">
+        <v>0.204236006051437</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -2896,20 +2823,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3">
-        <v>1144.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="n">
+        <v>1144</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="4">
-        <v>0.0</v>
+      <c r="C98" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -2919,20 +2846,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3">
-        <v>1145.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="n">
+        <v>1145</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="4" t="n">
         <v>0.63</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -2942,20 +2869,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3">
-        <v>1146.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>1147</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="4">
-        <v>0.0</v>
+      <c r="C100" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -2965,62 +2892,114 @@
         <v>20</v>
       </c>
     </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$100"/>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <autoFilter ref="A1:G100"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.5"/>
-    <col customWidth="1" min="2" max="2" width="9.38"/>
-    <col customWidth="1" min="3" max="3" width="12.25"/>
-    <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="5" max="5" width="34.13"/>
-    <col customWidth="1" min="6" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="12.5"/>
-    <col customWidth="1" min="8" max="26" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -3033,7 +3012,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3043,11 +3022,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3057,11 +3036,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
@@ -3069,11 +3048,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2"/>
@@ -3081,11 +3060,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
@@ -3093,3031 +3072,3034 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8">
-      <c r="E8" s="5" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9">
-      <c r="E9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10">
-      <c r="E10" s="5" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11">
-      <c r="E11" s="5" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12">
-      <c r="E12" s="5" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13">
-      <c r="E13" s="5" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14">
-      <c r="E14" s="5" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15">
-      <c r="E15" s="5" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16">
-      <c r="E16" s="5" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17">
-      <c r="E17" s="5" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18">
-      <c r="E18" s="5" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19">
-      <c r="E19" s="5" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F317" s="2"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F318" s="2"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F319" s="2"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F320" s="2"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F321" s="2"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F322" s="2"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F323" s="2"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F324" s="2"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F325" s="2"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F326" s="2"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F327" s="2"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F328" s="2"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F329" s="2"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F330" s="2"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F331" s="2"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F332" s="2"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F333" s="2"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F334" s="2"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F335" s="2"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F336" s="2"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F337" s="2"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F338" s="2"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F339" s="2"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F340" s="2"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F341" s="2"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F342" s="2"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F343" s="2"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F344" s="2"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F345" s="2"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F346" s="2"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F347" s="2"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F348" s="2"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F349" s="2"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F350" s="2"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F351" s="2"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F352" s="2"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F353" s="2"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F354" s="2"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F355" s="2"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F356" s="2"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F357" s="2"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F358" s="2"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F359" s="2"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F360" s="2"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F361" s="2"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F362" s="2"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F363" s="2"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F364" s="2"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F365" s="2"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F366" s="2"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F367" s="2"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F368" s="2"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F369" s="2"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F370" s="2"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F371" s="2"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F372" s="2"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F373" s="2"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F374" s="2"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F375" s="2"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F376" s="2"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F377" s="2"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F378" s="2"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F379" s="2"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F380" s="2"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F381" s="2"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F382" s="2"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F383" s="2"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F384" s="2"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F385" s="2"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F386" s="2"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F387" s="2"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F388" s="2"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F389" s="2"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F390" s="2"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F391" s="2"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F392" s="2"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F393" s="2"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F394" s="2"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F395" s="2"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F396" s="2"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F397" s="2"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F398" s="2"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F399" s="2"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F400" s="2"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F401" s="2"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F402" s="2"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F403" s="2"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F404" s="2"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F405" s="2"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F406" s="2"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F407" s="2"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F408" s="2"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F409" s="2"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F410" s="2"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F411" s="2"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F412" s="2"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F413" s="2"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F414" s="2"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F415" s="2"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F416" s="2"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F417" s="2"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F418" s="2"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F419" s="2"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F420" s="2"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F421" s="2"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F422" s="2"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F423" s="2"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F424" s="2"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F425" s="2"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F426" s="2"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F427" s="2"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F428" s="2"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F429" s="2"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F430" s="2"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F431" s="2"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F432" s="2"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F433" s="2"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F434" s="2"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F435" s="2"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F436" s="2"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F437" s="2"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F438" s="2"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F439" s="2"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F440" s="2"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F441" s="2"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F442" s="2"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F443" s="2"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F444" s="2"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F445" s="2"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F446" s="2"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F447" s="2"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F448" s="2"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F449" s="2"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F450" s="2"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F451" s="2"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F452" s="2"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F453" s="2"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F454" s="2"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F455" s="2"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F456" s="2"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F457" s="2"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F458" s="2"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F459" s="2"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F460" s="2"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F461" s="2"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F462" s="2"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F463" s="2"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F464" s="2"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F465" s="2"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F466" s="2"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F467" s="2"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F468" s="2"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F469" s="2"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F470" s="2"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F471" s="2"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F472" s="2"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F473" s="2"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F474" s="2"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F475" s="2"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F476" s="2"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F477" s="2"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F478" s="2"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F479" s="2"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F480" s="2"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F481" s="2"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F482" s="2"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F483" s="2"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F484" s="2"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F485" s="2"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F486" s="2"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F487" s="2"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F488" s="2"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F489" s="2"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F490" s="2"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F491" s="2"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F492" s="2"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F493" s="2"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F494" s="2"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F495" s="2"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F496" s="2"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F497" s="2"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F498" s="2"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F499" s="2"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F500" s="2"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F501" s="2"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F502" s="2"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F503" s="2"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F504" s="2"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F505" s="2"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F506" s="2"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F507" s="2"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F508" s="2"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F509" s="2"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F510" s="2"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F511" s="2"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F512" s="2"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F513" s="2"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F514" s="2"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F515" s="2"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F516" s="2"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F517" s="2"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F518" s="2"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F519" s="2"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F520" s="2"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F521" s="2"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F522" s="2"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F523" s="2"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F524" s="2"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F525" s="2"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F526" s="2"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F527" s="2"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F528" s="2"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F529" s="2"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F530" s="2"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F531" s="2"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F532" s="2"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F533" s="2"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F534" s="2"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F535" s="2"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F536" s="2"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F537" s="2"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F538" s="2"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F539" s="2"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F540" s="2"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F541" s="2"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F542" s="2"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F543" s="2"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F544" s="2"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F545" s="2"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F546" s="2"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F547" s="2"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F548" s="2"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F549" s="2"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F550" s="2"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F551" s="2"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F552" s="2"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F553" s="2"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F554" s="2"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F555" s="2"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F556" s="2"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F557" s="2"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F558" s="2"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F559" s="2"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F560" s="2"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F561" s="2"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F562" s="2"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F563" s="2"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F564" s="2"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F565" s="2"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F566" s="2"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F567" s="2"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F568" s="2"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F569" s="2"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F570" s="2"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F571" s="2"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F572" s="2"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F573" s="2"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F574" s="2"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F575" s="2"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F576" s="2"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F577" s="2"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F578" s="2"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F579" s="2"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F580" s="2"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F581" s="2"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F582" s="2"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F583" s="2"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F584" s="2"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F585" s="2"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F586" s="2"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F587" s="2"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F588" s="2"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F589" s="2"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F590" s="2"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F591" s="2"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F592" s="2"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F593" s="2"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F594" s="2"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F595" s="2"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F596" s="2"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F597" s="2"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F598" s="2"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F599" s="2"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F600" s="2"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F601" s="2"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F602" s="2"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F603" s="2"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F604" s="2"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F605" s="2"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F606" s="2"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F607" s="2"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F608" s="2"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F609" s="2"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F610" s="2"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F611" s="2"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F612" s="2"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F613" s="2"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F614" s="2"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F615" s="2"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F616" s="2"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F617" s="2"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F618" s="2"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F619" s="2"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F620" s="2"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F621" s="2"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F622" s="2"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F623" s="2"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F624" s="2"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F625" s="2"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F626" s="2"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F627" s="2"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F628" s="2"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F629" s="2"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F630" s="2"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F631" s="2"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F632" s="2"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F633" s="2"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F634" s="2"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F635" s="2"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F636" s="2"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F637" s="2"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F638" s="2"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F639" s="2"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F640" s="2"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F641" s="2"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F642" s="2"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F643" s="2"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F644" s="2"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F645" s="2"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F646" s="2"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F647" s="2"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F648" s="2"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F649" s="2"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F650" s="2"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F651" s="2"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F652" s="2"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F653" s="2"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F654" s="2"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F655" s="2"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F656" s="2"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F657" s="2"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F658" s="2"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F659" s="2"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F660" s="2"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F661" s="2"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F662" s="2"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F663" s="2"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F664" s="2"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F665" s="2"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F666" s="2"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F667" s="2"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F668" s="2"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F669" s="2"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F670" s="2"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F671" s="2"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F672" s="2"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F673" s="2"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F674" s="2"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F675" s="2"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F676" s="2"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F677" s="2"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F678" s="2"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F679" s="2"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F680" s="2"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F681" s="2"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F682" s="2"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F683" s="2"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F684" s="2"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F685" s="2"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F686" s="2"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F687" s="2"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F688" s="2"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F689" s="2"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F690" s="2"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F691" s="2"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F692" s="2"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F693" s="2"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F694" s="2"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F695" s="2"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F696" s="2"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F697" s="2"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F698" s="2"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F699" s="2"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F700" s="2"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F701" s="2"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F702" s="2"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F703" s="2"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F704" s="2"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F705" s="2"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F706" s="2"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F707" s="2"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F708" s="2"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F709" s="2"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F710" s="2"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F711" s="2"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F712" s="2"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F713" s="2"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F714" s="2"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F715" s="2"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F717" s="2"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F718" s="2"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F719" s="2"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F720" s="2"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F721" s="2"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F722" s="2"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F723" s="2"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F724" s="2"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F725" s="2"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F726" s="2"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F727" s="2"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F728" s="2"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F729" s="2"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F730" s="2"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F731" s="2"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F732" s="2"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F733" s="2"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F734" s="2"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F735" s="2"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F736" s="2"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F737" s="2"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F738" s="2"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F739" s="2"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F740" s="2"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F741" s="2"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F742" s="2"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F743" s="2"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F744" s="2"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F745" s="2"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F746" s="2"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F747" s="2"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F748" s="2"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F749" s="2"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F750" s="2"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F751" s="2"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F752" s="2"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F753" s="2"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F754" s="2"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F755" s="2"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F756" s="2"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F757" s="2"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F758" s="2"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F759" s="2"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F760" s="2"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F761" s="2"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F762" s="2"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F763" s="2"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F764" s="2"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F765" s="2"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F766" s="2"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F767" s="2"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F768" s="2"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F769" s="2"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F770" s="2"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F771" s="2"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F772" s="2"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F773" s="2"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F774" s="2"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F775" s="2"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F776" s="2"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F777" s="2"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F778" s="2"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F779" s="2"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F780" s="2"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F781" s="2"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F782" s="2"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F783" s="2"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F784" s="2"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F785" s="2"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F786" s="2"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F787" s="2"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F788" s="2"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F789" s="2"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F790" s="2"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F791" s="2"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F792" s="2"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F793" s="2"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F794" s="2"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F795" s="2"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F796" s="2"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F797" s="2"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F798" s="2"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F799" s="2"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F800" s="2"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F801" s="2"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F802" s="2"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F803" s="2"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F804" s="2"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F805" s="2"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F806" s="2"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F807" s="2"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F808" s="2"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F809" s="2"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F810" s="2"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F811" s="2"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F812" s="2"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F813" s="2"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F814" s="2"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F815" s="2"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F816" s="2"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F817" s="2"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F818" s="2"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F819" s="2"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F820" s="2"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F821" s="2"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F822" s="2"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F823" s="2"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F824" s="2"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F825" s="2"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F826" s="2"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F827" s="2"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F828" s="2"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F829" s="2"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F830" s="2"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F831" s="2"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F832" s="2"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F833" s="2"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F834" s="2"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F835" s="2"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F836" s="2"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F837" s="2"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F838" s="2"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F839" s="2"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F840" s="2"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F841" s="2"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F842" s="2"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F843" s="2"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F844" s="2"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F845" s="2"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F846" s="2"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F847" s="2"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F848" s="2"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F849" s="2"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F850" s="2"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F851" s="2"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F852" s="2"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F853" s="2"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F854" s="2"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F855" s="2"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F856" s="2"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F857" s="2"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F858" s="2"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F859" s="2"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F860" s="2"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F861" s="2"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F862" s="2"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F863" s="2"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F864" s="2"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F865" s="2"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F866" s="2"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F867" s="2"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F868" s="2"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F869" s="2"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F870" s="2"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F871" s="2"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F872" s="2"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F873" s="2"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F874" s="2"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F875" s="2"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F876" s="2"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F877" s="2"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F878" s="2"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F879" s="2"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F880" s="2"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F881" s="2"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F882" s="2"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F883" s="2"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F884" s="2"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F885" s="2"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F886" s="2"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F887" s="2"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F888" s="2"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F889" s="2"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F890" s="2"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F891" s="2"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F892" s="2"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F893" s="2"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F894" s="2"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F895" s="2"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F896" s="2"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F897" s="2"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F898" s="2"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F899" s="2"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F900" s="2"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F901" s="2"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F902" s="2"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F903" s="2"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F904" s="2"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F905" s="2"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F906" s="2"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F907" s="2"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F908" s="2"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F909" s="2"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F910" s="2"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F911" s="2"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F912" s="2"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F913" s="2"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F914" s="2"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F915" s="2"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F916" s="2"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F917" s="2"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F918" s="2"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F919" s="2"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F920" s="2"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F921" s="2"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F922" s="2"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F923" s="2"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F924" s="2"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F925" s="2"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F926" s="2"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F927" s="2"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F928" s="2"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F929" s="2"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F930" s="2"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F931" s="2"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F932" s="2"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F933" s="2"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F934" s="2"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F935" s="2"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F936" s="2"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F937" s="2"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F938" s="2"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F939" s="2"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F940" s="2"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F941" s="2"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F942" s="2"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F943" s="2"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F944" s="2"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F945" s="2"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F946" s="2"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F947" s="2"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F948" s="2"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F949" s="2"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F950" s="2"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F951" s="2"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F952" s="2"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F953" s="2"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F954" s="2"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F955" s="2"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F956" s="2"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F957" s="2"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F958" s="2"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F959" s="2"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F960" s="2"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F961" s="2"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F962" s="2"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F963" s="2"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F964" s="2"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F965" s="2"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F966" s="2"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F967" s="2"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F968" s="2"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F969" s="2"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F970" s="2"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F971" s="2"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F972" s="2"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F973" s="2"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F974" s="2"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F975" s="2"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F976" s="2"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F977" s="2"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F978" s="2"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F990" s="2"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F991" s="2"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F992" s="2"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F993" s="2"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F994" s="2"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F995" s="2"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F996" s="2"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F997" s="2"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F998" s="2"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F999" s="2"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -370,7 +370,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -406,6 +406,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -463,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,6 +488,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -573,15 +583,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
+      <selection pane="bottomLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -2873,8 +2883,8 @@
       <c r="A100" s="3" t="n">
         <v>1147</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>105</v>
+      <c r="B100" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>0</v>
@@ -2882,8 +2892,8 @@
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>24</v>
+      <c r="E100" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>19</v>
@@ -2938,6 +2948,8 @@
         <v>20</v>
       </c>
     </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2964,7 +2976,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -2977,25 +2989,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
     </row>

--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="113">
   <si>
     <t xml:space="preserve">PLZ</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTTH Swisscom </t>
   </si>
   <si>
     <t xml:space="preserve">Mollens (VD)</t>
@@ -370,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -406,12 +409,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,7 +466,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,10 +485,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -588,10 +581,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -2883,16 +2876,16 @@
       <c r="A100" s="3" t="n">
         <v>1147</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -2907,13 +2900,13 @@
         <v>1147</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>24</v>
@@ -2930,7 +2923,7 @@
         <v>1148</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>2</v>
@@ -2976,7 +2969,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -2989,37 +2982,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>107</v>
+      <c r="G1" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3074,14 +3067,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="118">
   <si>
     <t xml:space="preserve">PLZ</t>
   </si>
@@ -326,7 +326,16 @@
     <t xml:space="preserve">Denens</t>
   </si>
   <si>
-    <t xml:space="preserve">Bussy-Chardonney</t>
+    <t xml:space="preserve">Bussy-Chardonney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.fast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land </t>
   </si>
   <si>
     <t xml:space="preserve">Sévery</t>
@@ -345,6 +354,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mollens (VD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollens (VD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ost Agglomeration Winterthur </t>
   </si>
   <si>
     <t xml:space="preserve">KAM Region</t>
@@ -466,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,6 +500,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -579,12 +598,12 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -2745,16 +2764,16 @@
         <v>0.410112359550562</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,7 +2781,7 @@
         <v>1141</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>0.232758620689655</v>
@@ -2785,7 +2804,7 @@
         <v>1142</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>0.18</v>
@@ -2831,7 +2850,7 @@
         <v>1144</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>0</v>
@@ -2854,7 +2873,7 @@
         <v>1145</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>0.63</v>
@@ -2877,13 +2896,13 @@
         <v>1147</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>16</v>
@@ -2900,13 +2919,13 @@
         <v>1147</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>24</v>
@@ -2923,7 +2942,7 @@
         <v>1148</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>2</v>
@@ -2938,6 +2957,29 @@
         <v>19</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2969,7 +3011,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -2982,37 +3024,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>108</v>
+      <c r="G1" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3067,14 +3109,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
   <si>
     <t xml:space="preserve">PLZ</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ost Agglomeration Winterthur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDSL, G.fast</t>
   </si>
   <si>
     <t xml:space="preserve">KAM Region</t>
@@ -600,10 +603,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -2980,6 +2983,29 @@
         <v>19</v>
       </c>
       <c r="G103" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3011,7 +3037,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -3037,24 +3063,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3109,14 +3135,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -12,7 +12,8 @@
     <sheet name="possible values" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$G$100</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$H$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$G$100</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="122">
   <si>
     <t xml:space="preserve">PLZ</t>
   </si>
@@ -47,6 +48,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Strategic partner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lausanne</t>
   </si>
   <si>
@@ -62,7 +66,13 @@
     <t xml:space="preserve">Top City</t>
   </si>
   <si>
+    <t xml:space="preserve">Cable Group AG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ost SG-TG-AR-AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isen Tiefbau</t>
   </si>
   <si>
     <t xml:space="preserve">Ticino</t>
@@ -484,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,6 +505,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -598,15 +612,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
+      <selection pane="bottomLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -614,10 +628,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,2328 +656,2345 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>0.00813609467455621</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="5" t="n">
+        <v>0.00813609467455621</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.00378787878787879</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.00378787878787879</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.005178716490658</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.00593403205918619</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.000665424540857067</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.211903799514956</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.00705521472392638</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.00705521472392638</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.0074894679357154</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.00531914893617021</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.27183358202405</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.310569922169219</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.277970511708586</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.27027027027027</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.16243654822335</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.231224878358367</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.5295</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.00531914893617021</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.00813609467455621</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.00531914893617021</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.281927710843373</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.7103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.046064139941691</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C41" s="5" t="n">
+        <v>0.00313269187737749</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>0.000214362272240086</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0.11734693877551</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>0.20476858345021</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>0.148494983277592</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>0.225585379782981</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.00378787878787879</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>0.154562383612663</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>0.114649681528662</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.00378787878787879</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>0.200595352410217</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>0.119018404907975</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>0.147058823529412</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>0.189054726368159</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>0.165311653116531</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>0.202185792349727</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>0.212089077412513</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>0.18232044198895</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>0.281535648994516</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.005178716490658</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.00593403205918619</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>0.251461988304094</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>0.410112359550562</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>0.232758620689655</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0.000665424540857067</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>0.204236006051437</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0.211903799514956</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.00705521472392638</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.00705521472392638</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0.0074894679357154</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="F100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0.00531914893617021</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0.27183358202405</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="F101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>0.310569922169219</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0.277970511708586</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>0.27027027027027</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>0.16243654822335</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>0.231224878358367</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>0.5295</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>0.00531914893617021</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>0.00531914893617021</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>0.281927710843373</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>0.7103</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>0.046064139941691</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>0.00313269187737749</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>0.000214362272240086</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>1068</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>0.11734693877551</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>1072</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>0.20476858345021</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>0.148494983277592</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>0.225585379782981</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
-        <v>1096</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>0.154562383612663</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>0.114649681528662</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
-        <v>1098</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>0.200595352410217</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>0.119018404907975</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>0.147058823529412</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>0.189054726368159</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>0.165311653116531</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="4" t="n">
-        <v>0.202185792349727</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="4" t="n">
-        <v>0.212089077412513</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>0.18232044198895</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>0.281535648994516</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>0.251461988304094</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="4" t="n">
-        <v>0.410112359550562</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="4" t="n">
-        <v>0.232758620689655</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>0.204236006051437</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F102" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,22 +3002,22 @@
         <v>1149</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="C103" s="6" t="n">
         <v>0.1012</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,28 +3025,26 @@
         <v>2000</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="C104" s="6" t="n">
         <v>0.1012</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G100"/>
+  <autoFilter ref="A1:H104"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3037,7 +3069,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -3050,176 +3082,176 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>114</v>
+      <c r="G1" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2"/>
     </row>

--- a/spec/files/penetrations.xlsx
+++ b/spec/files/penetrations.xlsx
@@ -12,8 +12,8 @@
     <sheet name="possible values" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$H$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$G$100</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$G$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$H$104</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Top City</t>
   </si>
   <si>
-    <t xml:space="preserve">Cable Group AG</t>
+    <t xml:space="preserve">Cable Group</t>
   </si>
   <si>
     <t xml:space="preserve">Ost SG-TG-AR-AI</t>
@@ -617,10 +617,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -3044,7 +3044,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H104"/>
+  <autoFilter ref="A1:G100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3069,7 +3069,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.38"/>
@@ -3077,7 +3077,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="9.38"/>
   </cols>
   <sheetData>
